--- a/src/main/webapp/Excel/eport.xlsx
+++ b/src/main/webapp/Excel/eport.xlsx
@@ -327,7 +327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
